--- a/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-2副本测试用例.xlsx
+++ b/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-2副本测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11750" yWindow="1760" windowWidth="3620" windowHeight="6000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="11750" yWindow="1760" windowWidth="2630" windowHeight="6000" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="boss-龙宫童子" sheetId="3" r:id="rId7"/>
     <sheet name="配置检查" sheetId="6" r:id="rId8"/>
     <sheet name="通用技能说明" sheetId="16" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1084">
   <si>
     <t>caseID</t>
   </si>
@@ -3389,290 +3390,622 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>无伤害效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗值计算正确（通过伤害公式计算）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗=怪物攻击力*99</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤害效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招群体加血少，并群体上法伤吸收护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅在技能目标身上产生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无图标显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看护盾吸收量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能配置受击特效挂点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招ultHetong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看施法特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看命中特效-治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看命中特效-护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能psvLonggongtongzi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成治疗且使用法攻技能时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能-psvHetong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发被动技能psvLonggongtongzi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入对局，对局开始时，查看被动技能触发情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局中，怪物造成治疗时，查看被动技能触发情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用法术技能造成治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用大招技能造成治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会触发被动技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能触发buff：护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标身上添加法术吸收护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻治疗时附带法伤吸收护盾。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收目标受到的法术伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时存在一个，后上的顶替前一个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看大招特写阶段音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写时有“叮”音效</t>
+  </si>
+  <si>
+    <t>复用斩击音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示肌肉时做闪光灯，挠复用斩效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看特写阶段音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看大招特写阶段特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷爆裂用水流音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对面敌人身上各自出现小水龙卷爆裂。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写时有“叮”音效，聚气复用聚气音效，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗礼角色复用治疗音效音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>捧龙珠时伴随浅蓝色聚拢光效，上浮龙珠时光带做托举旋转上升状，升到头顶后每个角色头顶都浮现光球，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放出时光球化成光柱洗礼角色然后消散</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能配置聚气特效挂点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能配置特写特效挂点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相扑式登场时左右脚踏地面分别激起水花，水花化成水龙卷，放出法术时分成小水龙卷爆开，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写时有“叮”音效，聚气复用聚气音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能配置特写特效挂点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看技能配置特写特效挂点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建7-2副本测试用例（不包括音乐音效，场景信息，AI，数值，配置）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看己方怪物-物理大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看己方怪物-法术大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头内可以看到己方怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入对局，直接击杀boss，查看触发情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看攻击后中buff效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害命中后一定产生buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看buff效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加法术伤害吸收护盾buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看buff命中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与治疗独立命中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗命中后buff一定命中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物释放大招技能ultLonggongtongzi，查看挂点情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发被动技能psvHetong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先制攻击-进场全团防御提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看buff效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看effect目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>己方全体目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物执行一次行动，触发全团防御提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入小怪对局，查看狼人技能释放情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放通用技能强斩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放通用技能中法攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放大招技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放被动技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与magicEarthMedium逻辑一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与attackCutStrong逻辑一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与ultLangren逻辑一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与psvLangren逻辑一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>触发被动技能psvLangren</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>psvLangren触发buff：buffAttack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无伤害效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗值计算正确（通过伤害公式计算）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗=怪物攻击力*99</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无伤害效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术大招</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招群体加血少，并群体上法伤吸收护盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅在技能目标身上产生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>absorb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无图标显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看护盾吸收量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看技能配置受击特效挂点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招ultHetong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看施法特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看命中特效-治疗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看命中特效-护盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能psvLonggongtongzi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成治疗且使用法攻技能时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能-psvHetong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发被动技能psvLonggongtongzi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入对局，对局开始时，查看被动技能触发情况</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局中，怪物造成治疗时，查看被动技能触发情况</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用法术技能造成治疗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用大招技能造成治疗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会触发被动技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能触发buff：护盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标身上添加法术吸收护盾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法攻治疗时附带法伤吸收护盾。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸收目标受到的法术伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时存在一个，后上的顶替前一个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看大招特写阶段音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效</t>
-  </si>
-  <si>
-    <t>复用斩击音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示肌肉时做闪光灯，挠复用斩效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看特写阶段音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看大招特写阶段特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷爆裂用水流音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对面敌人身上各自出现小水龙卷爆裂。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，聚气复用聚气音效，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗礼角色复用治疗音效音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>捧龙珠时伴随浅蓝色聚拢光效，上浮龙珠时光带做托举旋转上升状，升到头顶后每个角色头顶都浮现光球，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>放出时光球化成光柱洗礼角色然后消散</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看技能配置聚气特效挂点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看技能配置特写特效挂点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>相扑式登场时左右脚踏地面分别激起水花，水花化成水龙卷，放出法术时分成小水龙卷爆开，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，聚气复用聚气音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看技能配置特写特效挂点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看技能配置特写特效挂点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建7-2副本测试用例（不包括音乐音效，场景信息，AI，数值，配置）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看己方怪物-物理大招</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看己方怪物-法术大招</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头内可以看到己方怪物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入对局，直接击杀boss，查看触发情况</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看攻击后中buff效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害命中后一定产生buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看buff效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加法术伤害吸收护盾buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看buff命中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>与治疗独立命中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗命中后buff一定命中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物释放大招技能ultLonggongtongzi，查看挂点情况</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发被动技能psvHetong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>先制攻击-进场全团防御提升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看buff效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看effect目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方全体目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物执行一次行动，触发全团防御提升</t>
+    <t>psvLangren触发buff：psvLangrenb1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放大招，查看触发情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与utlLangren逻辑一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈皮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花魄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安普莎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛙鬼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼陀罗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿穆特</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜥蜴人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙宫童子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>络新妇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss阿穆特</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss走音草</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss安普沙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示未配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4601,7 +4934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4840,6 +5173,12 @@
     <xf numFmtId="9" fontId="9" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="144">
     <cellStyle name="20% - 着色 1" xfId="109" builtinId="30" customBuiltin="1"/>
@@ -4987,7 +5326,28 @@
     <cellStyle name="着色 6" xfId="128" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="142"/>
   </cellStyles>
-  <dxfs count="239">
+  <dxfs count="261">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5671,6 +6031,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -6135,6 +6516,153 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -6308,27 +6836,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -6465,20 +6972,6 @@
         <b/>
         <i val="0"/>
         <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -6854,13 +7347,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>541130</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>181317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6892,7 +7385,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="274429" cy="182559"/>
@@ -6959,6 +7452,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259162</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>151738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5448300"/>
+          <a:ext cx="9504762" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7264,7 +7800,7 @@
         <v>42222</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>28</v>
@@ -7303,6 +7839,921 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:R58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>872</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="80">
+        <v>1</v>
+      </c>
+      <c r="C5" s="80">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E5" s="81">
+        <v>1</v>
+      </c>
+      <c r="F5" s="80">
+        <v>1</v>
+      </c>
+      <c r="G5" s="81">
+        <v>1</v>
+      </c>
+      <c r="H5" s="81">
+        <v>1</v>
+      </c>
+      <c r="I5" s="81">
+        <v>1</v>
+      </c>
+      <c r="J5" s="81">
+        <v>1</v>
+      </c>
+      <c r="K5" s="80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L5" s="81">
+        <v>1</v>
+      </c>
+      <c r="M5" s="81">
+        <v>1</v>
+      </c>
+      <c r="N5" s="81">
+        <v>1</v>
+      </c>
+      <c r="O5" s="81">
+        <v>1</v>
+      </c>
+      <c r="P5" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="81">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="80">
+        <v>1</v>
+      </c>
+      <c r="C6" s="80">
+        <v>1</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E6" s="81">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80">
+        <v>1</v>
+      </c>
+      <c r="G6" s="81">
+        <v>1</v>
+      </c>
+      <c r="H6" s="81">
+        <v>1</v>
+      </c>
+      <c r="I6" s="81">
+        <v>1</v>
+      </c>
+      <c r="J6" s="81">
+        <v>1</v>
+      </c>
+      <c r="K6" s="80" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L6" s="81">
+        <v>1</v>
+      </c>
+      <c r="M6" s="81">
+        <v>1</v>
+      </c>
+      <c r="N6" s="81">
+        <v>1</v>
+      </c>
+      <c r="O6" s="81">
+        <v>1</v>
+      </c>
+      <c r="P6" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="81">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="80">
+        <v>1</v>
+      </c>
+      <c r="C7" s="80">
+        <v>1</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E7" s="81">
+        <v>1</v>
+      </c>
+      <c r="F7" s="80">
+        <v>1</v>
+      </c>
+      <c r="G7" s="81">
+        <v>1</v>
+      </c>
+      <c r="H7" s="81">
+        <v>1</v>
+      </c>
+      <c r="I7" s="81">
+        <v>1</v>
+      </c>
+      <c r="J7" s="81">
+        <v>1</v>
+      </c>
+      <c r="K7" s="80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L7" s="81">
+        <v>1</v>
+      </c>
+      <c r="M7" s="81">
+        <v>1</v>
+      </c>
+      <c r="N7" s="81">
+        <v>1</v>
+      </c>
+      <c r="O7" s="81">
+        <v>1</v>
+      </c>
+      <c r="P7" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="81">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="80">
+        <v>1</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E8" s="81">
+        <v>1</v>
+      </c>
+      <c r="F8" s="80">
+        <v>1</v>
+      </c>
+      <c r="G8" s="81">
+        <v>1</v>
+      </c>
+      <c r="H8" s="81">
+        <v>1</v>
+      </c>
+      <c r="I8" s="81">
+        <v>1</v>
+      </c>
+      <c r="J8" s="81">
+        <v>1</v>
+      </c>
+      <c r="K8" s="80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L8" s="81">
+        <v>1</v>
+      </c>
+      <c r="M8" s="81">
+        <v>1</v>
+      </c>
+      <c r="N8" s="81">
+        <v>1</v>
+      </c>
+      <c r="O8" s="81">
+        <v>1</v>
+      </c>
+      <c r="P8" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="81" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G9" s="81">
+        <v>1</v>
+      </c>
+      <c r="H9" s="81">
+        <v>1</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K9" s="80" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M9" s="81">
+        <v>1</v>
+      </c>
+      <c r="N9" s="81">
+        <v>1</v>
+      </c>
+      <c r="O9" s="81">
+        <v>1</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G10" s="81">
+        <v>1</v>
+      </c>
+      <c r="H10" s="81">
+        <v>1</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L10" s="81" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M10" s="81">
+        <v>1</v>
+      </c>
+      <c r="N10" s="81">
+        <v>1</v>
+      </c>
+      <c r="O10" s="81">
+        <v>1</v>
+      </c>
+      <c r="P10" s="81" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q10" s="81"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="81">
+        <v>1</v>
+      </c>
+      <c r="C11" s="81">
+        <v>1</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E11" s="81">
+        <v>1</v>
+      </c>
+      <c r="F11" s="80">
+        <v>1</v>
+      </c>
+      <c r="G11" s="81">
+        <v>1</v>
+      </c>
+      <c r="H11" s="81">
+        <v>1</v>
+      </c>
+      <c r="I11" s="81">
+        <v>1</v>
+      </c>
+      <c r="J11" s="81">
+        <v>1</v>
+      </c>
+      <c r="K11" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L11" s="81">
+        <v>1</v>
+      </c>
+      <c r="M11" s="81">
+        <v>1</v>
+      </c>
+      <c r="N11" s="81">
+        <v>1</v>
+      </c>
+      <c r="O11" s="81">
+        <v>1</v>
+      </c>
+      <c r="P11" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="81"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="81">
+        <v>1</v>
+      </c>
+      <c r="C12" s="81">
+        <v>1</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E12" s="81">
+        <v>1</v>
+      </c>
+      <c r="F12" s="81">
+        <v>1</v>
+      </c>
+      <c r="G12" s="81">
+        <v>1</v>
+      </c>
+      <c r="H12" s="81">
+        <v>1</v>
+      </c>
+      <c r="I12" s="81">
+        <v>1</v>
+      </c>
+      <c r="J12" s="81">
+        <v>1</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L12" s="81">
+        <v>1</v>
+      </c>
+      <c r="M12" s="81">
+        <v>1</v>
+      </c>
+      <c r="N12" s="81">
+        <v>1</v>
+      </c>
+      <c r="O12" s="81">
+        <v>1</v>
+      </c>
+      <c r="P12" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="81">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="81">
+        <v>1</v>
+      </c>
+      <c r="C13" s="81">
+        <v>1</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E13" s="81">
+        <v>1</v>
+      </c>
+      <c r="F13" s="81">
+        <v>1</v>
+      </c>
+      <c r="G13" s="81">
+        <v>1</v>
+      </c>
+      <c r="H13" s="81">
+        <v>1</v>
+      </c>
+      <c r="I13" s="81">
+        <v>1</v>
+      </c>
+      <c r="J13" s="81">
+        <v>1</v>
+      </c>
+      <c r="K13" s="81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L13" s="81">
+        <v>1</v>
+      </c>
+      <c r="M13" s="81">
+        <v>1</v>
+      </c>
+      <c r="N13" s="81">
+        <v>1</v>
+      </c>
+      <c r="O13" s="81">
+        <v>1</v>
+      </c>
+      <c r="P13" s="81">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="81">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="81">
+        <v>1</v>
+      </c>
+      <c r="C14" s="81">
+        <v>1</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E14" s="81">
+        <v>1</v>
+      </c>
+      <c r="F14" s="81">
+        <v>1</v>
+      </c>
+      <c r="G14" s="81">
+        <v>1</v>
+      </c>
+      <c r="H14" s="81">
+        <v>1</v>
+      </c>
+      <c r="I14" s="81">
+        <v>1</v>
+      </c>
+      <c r="J14" s="81">
+        <v>1</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L14" s="81">
+        <v>1</v>
+      </c>
+      <c r="M14" s="81">
+        <v>1</v>
+      </c>
+      <c r="N14" s="81">
+        <v>1</v>
+      </c>
+      <c r="O14" s="81">
+        <v>1</v>
+      </c>
+      <c r="P14" s="81">
+        <v>542</v>
+      </c>
+      <c r="Q14" s="81" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="G15" s="81" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B17" s="81">
+        <v>1</v>
+      </c>
+      <c r="C17" s="81">
+        <v>1</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E17" s="81">
+        <v>1</v>
+      </c>
+      <c r="F17" s="81">
+        <v>1</v>
+      </c>
+      <c r="G17" s="81">
+        <v>1</v>
+      </c>
+      <c r="H17" s="81">
+        <v>1</v>
+      </c>
+      <c r="I17" s="81">
+        <v>1</v>
+      </c>
+      <c r="J17" s="81">
+        <v>1</v>
+      </c>
+      <c r="K17" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L17" s="81">
+        <v>1</v>
+      </c>
+      <c r="M17" s="81">
+        <v>1</v>
+      </c>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B18" s="81">
+        <v>1</v>
+      </c>
+      <c r="C18" s="81">
+        <v>1</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E18" s="81">
+        <v>1</v>
+      </c>
+      <c r="F18" s="81">
+        <v>1</v>
+      </c>
+      <c r="G18" s="81">
+        <v>1</v>
+      </c>
+      <c r="H18" s="81">
+        <v>1</v>
+      </c>
+      <c r="I18" s="81">
+        <v>1</v>
+      </c>
+      <c r="J18" s="81">
+        <v>1</v>
+      </c>
+      <c r="K18" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L18" s="81">
+        <v>1</v>
+      </c>
+      <c r="M18" s="81">
+        <v>1</v>
+      </c>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="81" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M19" s="81" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81" t="s">
+        <v>903</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D57" s="76" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E57" s="76" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F57" s="76" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G57" s="76" t="s">
+        <v>872</v>
+      </c>
+      <c r="H57" s="76" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I57" s="76" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J57" s="76" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K57" s="76" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L57" s="76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M57" s="76" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N57" s="76" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O57" s="76" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P57" s="76" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C58">
+        <v>565</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H58">
+        <v>576</v>
+      </c>
+      <c r="I58">
+        <v>578</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K58">
+        <v>579</v>
+      </c>
+      <c r="L58">
+        <v>567</v>
+      </c>
+      <c r="M58">
+        <v>566</v>
+      </c>
+      <c r="N58">
+        <v>580</v>
+      </c>
+      <c r="O58">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7311,7 +8762,7 @@
   <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A76" sqref="A76:XFD77"/>
@@ -8306,7 +9757,7 @@
         <v>207</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>208</v>
@@ -8314,10 +9765,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F77" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -8584,41 +10035,41 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K115:K126 H12:H31">
-    <cfRule type="cellIs" dxfId="238" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K115:K126 H12:H31">
-    <cfRule type="cellIs" dxfId="236" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H121">
-    <cfRule type="cellIs" dxfId="235" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H121">
-    <cfRule type="cellIs" dxfId="233" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H127">
-    <cfRule type="cellIs" dxfId="232" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H127">
-    <cfRule type="cellIs" dxfId="230" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8632,7 +10083,7 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
@@ -9488,7 +10939,7 @@
         <v>207</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G68" s="29" t="s">
         <v>208</v>
@@ -9496,10 +10947,10 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F69" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -9766,41 +11217,41 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K107:K118 H4:H23">
-    <cfRule type="cellIs" dxfId="229" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107:K118 H4:H23">
-    <cfRule type="cellIs" dxfId="227" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H113">
-    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H113">
-    <cfRule type="cellIs" dxfId="224" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H119">
-    <cfRule type="cellIs" dxfId="223" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H119">
-    <cfRule type="cellIs" dxfId="221" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10736,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>27</v>
@@ -10779,7 +12230,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>35</v>
@@ -10862,54 +12313,54 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K103:K105 H4:H7 H15:H23">
-    <cfRule type="cellIs" dxfId="220" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="21" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103:K105 H4:H7 H15:H23">
-    <cfRule type="cellIs" dxfId="218" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H106">
-    <cfRule type="cellIs" dxfId="217" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H106">
-    <cfRule type="cellIs" dxfId="215" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="214" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="212" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="209" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10919,10 +12370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -11122,7 +12573,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
         <v>242</v>
@@ -11131,7 +12582,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
         <v>243</v>
@@ -11140,7 +12591,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
         <v>244</v>
@@ -11149,7 +12600,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
         <v>245</v>
@@ -11158,7 +12609,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
         <v>246</v>
@@ -11167,7 +12618,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="8">
         <v>4</v>
       </c>
@@ -11181,7 +12632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
         <v>244</v>
@@ -11190,7 +12641,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
         <v>266</v>
@@ -11199,12 +12650,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>247</v>
       </c>
@@ -11221,8 +12672,11 @@
       <c r="G26" s="18" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8">
         <v>2</v>
       </c>
@@ -11232,8 +12686,11 @@
       <c r="G27" s="18" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
         <v>252</v>
@@ -11241,8 +12698,11 @@
       <c r="G28" s="18" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
         <v>253</v>
@@ -11250,8 +12710,11 @@
       <c r="G29" s="18" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -11259,7 +12722,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
         <v>256</v>
       </c>
@@ -11267,370 +12730,389 @@
       <c r="F31" s="56"/>
       <c r="G31" s="57"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="74" t="s">
+    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="75">
-        <v>1</v>
-      </c>
-      <c r="E32" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71" t="s">
+      <c r="C32" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75">
+      <c r="H32" s="13" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+    </row>
+    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="36">
+        <v>1</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>832</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75">
+      <c r="E43" s="53" t="s">
+        <v>833</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D45" s="8">
         <v>3</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75">
-        <v>4</v>
-      </c>
-      <c r="E37" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75">
-        <v>5</v>
-      </c>
-      <c r="E40" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75">
-        <v>6</v>
-      </c>
-      <c r="E42" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75">
-        <v>1</v>
-      </c>
-      <c r="E44" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="1:7" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="D47" s="36">
-        <v>1</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>832</v>
-      </c>
+      <c r="E45" s="53" t="s">
+        <v>835</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="G45" s="74"/>
+    </row>
+    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="53"/>
+      <c r="F46" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="17"/>
       <c r="F47" s="54" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G47" s="54" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="G48" s="54" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="8">
+    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D49" s="36">
         <v>2</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>833</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="G49" s="54" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D51" s="8">
-        <v>3</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>835</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="G51" s="74"/>
-    </row>
-    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E52" s="53"/>
-      <c r="F52" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E53" s="17"/>
-      <c r="F53" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="G53" s="54" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D54" s="8">
-        <v>1</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="53" t="s">
+        <v>883</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D55" s="36">
+    <row r="52" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="58" t="s">
+        <v>836</v>
+      </c>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+    </row>
+    <row r="53" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="D57" s="8">
         <v>2</v>
       </c>
-      <c r="E55" s="53" t="s">
-        <v>883</v>
-      </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
-        <v>836</v>
-      </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="E57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="71" t="s">
+        <v>840</v>
+      </c>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D59" s="8">
         <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F59" s="11"/>
       <c r="G59" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="32"/>
+        <v>116</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="H60" s="13"/>
+      <c r="D60" s="8">
+        <v>2</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="61" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
@@ -11638,7 +13120,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="23"/>
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -11647,17 +13129,19 @@
         <v>33</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
-        <v>839</v>
+        <v>58</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="73" t="s">
+        <v>843</v>
       </c>
       <c r="H62" s="13"/>
     </row>
@@ -11667,888 +13151,914 @@
       <c r="D63" s="8">
         <v>2</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="71" t="s">
-        <v>840</v>
-      </c>
-      <c r="H63" s="13"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="64" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="8">
+        <v>3</v>
+      </c>
       <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="13"/>
+      <c r="F64" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="B65" s="6"/>
       <c r="D65" s="8">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H65" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="D66" s="8">
-        <v>2</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>841</v>
-      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="23" t="s">
-        <v>842</v>
-      </c>
+      <c r="G66" s="11"/>
       <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="23"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>850</v>
+      </c>
       <c r="H67" s="13"/>
     </row>
     <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="8">
-        <v>1</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="73" t="s">
-        <v>843</v>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="G68" s="79">
+        <v>0.99</v>
       </c>
       <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="D69" s="8">
-        <v>2</v>
-      </c>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>844</v>
+      <c r="F69" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="G69" s="79" t="s">
+        <v>986</v>
       </c>
       <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="D70" s="8">
-        <v>3</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
-        <v>60</v>
+      <c r="D70" s="6"/>
+      <c r="F70" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="D71" s="8">
-        <v>4</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>846</v>
+    <row r="71" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="F71" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="73" t="s">
+        <v>66</v>
       </c>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+    <row r="72" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="8">
-        <v>1</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>850</v>
-      </c>
+      <c r="B73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="F73" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="73"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="11"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="11"/>
       <c r="F74" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="G74" s="79">
-        <v>0.99</v>
+        <v>74</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="10" t="s">
-        <v>991</v>
-      </c>
-      <c r="G75" s="79" t="s">
-        <v>988</v>
+      <c r="D75" s="8">
+        <v>2</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="11" t="s">
+        <v>851</v>
       </c>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="F76" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="H76" s="13"/>
+    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="F76" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="G76" s="73"/>
     </row>
     <row r="77" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="F77" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G77" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="H77" s="13"/>
+      <c r="F77" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="78" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="F78" s="11" t="s">
-        <v>67</v>
+        <v>854</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H78" s="13"/>
+        <v>845</v>
+      </c>
     </row>
     <row r="79" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="F79" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G79" s="73"/>
-      <c r="H79" s="13"/>
+      <c r="F79" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="80" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="F80" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H80" s="13"/>
-    </row>
-    <row r="81" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+    </row>
+    <row r="81" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="D81" s="8">
+        <v>1</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="73"/>
+    </row>
+    <row r="82" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="D82" s="8">
         <v>2</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="F82" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="G82" s="73"/>
-    </row>
-    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="F83" s="11" t="s">
-        <v>853</v>
-      </c>
+      <c r="E82" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="D83" s="8">
+        <v>3</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="11"/>
       <c r="G83" s="11" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
       <c r="D84" s="8"/>
-      <c r="F84" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>859</v>
+      </c>
       <c r="F85" s="11" t="s">
-        <v>856</v>
+        <v>284</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
       <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G86" s="73"/>
+    </row>
+    <row r="87" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>262</v>
-      </c>
+      <c r="B87" s="6"/>
       <c r="D87" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="73"/>
-    </row>
-    <row r="88" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
-      <c r="D88" s="8">
-        <v>2</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="8"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G88" s="73"/>
+    </row>
+    <row r="89" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="D89" s="8">
         <v>3</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G89" s="73"/>
+    </row>
+    <row r="90" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="D90" s="8"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G90" s="73"/>
+    </row>
+    <row r="91" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
-      <c r="B91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>279</v>
-      </c>
+      <c r="B91" s="6"/>
       <c r="D91" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>859</v>
+        <v>283</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="D92" s="8"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G92" s="73"/>
     </row>
-    <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="D93" s="8">
+      <c r="D93" s="8"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="58" t="s">
+        <v>928</v>
+      </c>
+      <c r="B94" s="46"/>
+      <c r="D94" s="46"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I95" s="6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D96" s="6">
         <v>2</v>
       </c>
-      <c r="E93" s="11" t="s">
-        <v>963</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G94" s="73"/>
-    </row>
-    <row r="95" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="D95" s="8">
+      <c r="E96" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D97" s="6">
         <v>3</v>
       </c>
-      <c r="E95" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="G95" s="73"/>
-    </row>
-    <row r="96" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G96" s="73"/>
-    </row>
-    <row r="97" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="D97" s="8">
+      <c r="E97" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="G97" s="66">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D98" s="6">
         <v>4</v>
       </c>
-      <c r="E97" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G98" s="73"/>
-    </row>
-    <row r="99" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
-        <v>928</v>
-      </c>
-      <c r="B100" s="46"/>
-      <c r="D100" s="46"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>562</v>
-      </c>
+      <c r="E98" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="G98" s="72" t="s">
+        <v>868</v>
+      </c>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D101" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D102" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>559</v>
+        <v>863</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D103" s="6">
-        <v>3</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="G103" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="13"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>865</v>
+      </c>
       <c r="D104" s="6">
-        <v>4</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="G104" s="72" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D106" s="6">
-        <v>1</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>862</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D107" s="6">
-        <v>2</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D108" s="6">
-        <v>3</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>863</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="D110" s="6">
-        <v>1</v>
-      </c>
-      <c r="E110" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="73" t="s">
+      <c r="F104" s="10"/>
+      <c r="G104" s="73" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G111" s="11" t="s">
+      <c r="G105" s="11" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E112" s="11"/>
-      <c r="F112" s="10" t="s">
+      <c r="H105" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E106" s="11"/>
+      <c r="F106" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G112" s="73" t="s">
+      <c r="G106" s="73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E113" s="11"/>
-      <c r="F113" s="11" t="s">
+      <c r="H106" s="13"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E107" s="11"/>
+      <c r="F107" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G107" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E114" s="11"/>
-      <c r="F114" s="10" t="s">
+      <c r="H107" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E108" s="11"/>
+      <c r="F108" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G114" s="73"/>
-    </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E115" s="11"/>
-      <c r="F115" s="10" t="s">
+      <c r="G108" s="73"/>
+      <c r="H108" s="13"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E109" s="11"/>
+      <c r="F109" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="G109" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="H109" s="13" t="s">
+        <v>1026</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G41:G42">
-    <cfRule type="cellIs" dxfId="208" priority="60" operator="equal">
+  <phoneticPr fontId="39" type="noConversion"/>
+  <conditionalFormatting sqref="B38:G40">
+    <cfRule type="cellIs" dxfId="230" priority="81" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="82" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50 A49:C49 D55:F55">
-    <cfRule type="cellIs" dxfId="206" priority="93" operator="equal">
+  <conditionalFormatting sqref="A44:D44 A43:C43 D49:F49 A38:A39">
+    <cfRule type="cellIs" dxfId="228" priority="114" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45">
-    <cfRule type="cellIs" dxfId="205" priority="90" operator="equal">
+  <conditionalFormatting sqref="A42:D42 A41:G41">
+    <cfRule type="cellIs" dxfId="227" priority="111" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45 A50:D50 A49:C49 D55:E55">
-    <cfRule type="cellIs" dxfId="204" priority="91" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A42:D42 A41:G41 A44:D44 A43:C43 D49:E49 A38:A39">
+    <cfRule type="cellIs" dxfId="226" priority="112" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="113" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="202" priority="79" operator="equal">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="224" priority="100" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="101" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="102" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="199" priority="77" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F42:G42">
+    <cfRule type="cellIs" dxfId="221" priority="98" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="99" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="197" priority="76" operator="equal">
+  <conditionalFormatting sqref="F42:G42">
+    <cfRule type="cellIs" dxfId="219" priority="97" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:G40 E41:F42">
-    <cfRule type="cellIs" dxfId="196" priority="62" operator="equal">
+  <conditionalFormatting sqref="B32:G37">
+    <cfRule type="cellIs" dxfId="218" priority="85" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="86" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:D42 B32:G39 B43:G46">
-    <cfRule type="cellIs" dxfId="194" priority="64" operator="equal">
+  <conditionalFormatting sqref="E43:G43">
+    <cfRule type="cellIs" dxfId="216" priority="75" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:G43">
+    <cfRule type="cellIs" dxfId="215" priority="76" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="77" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="65" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="213" priority="72" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="73" operator="equal">
       <formula>"P"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="74" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="192" priority="54" operator="equal">
+  <conditionalFormatting sqref="F44:G44">
+    <cfRule type="cellIs" dxfId="210" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:G44">
+    <cfRule type="cellIs" dxfId="208" priority="69" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="191" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="207" priority="66" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="206" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="189" priority="51" operator="equal">
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="204" priority="63" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="64" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="65" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="186" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="201" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="184" priority="48" operator="equal">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="199" priority="60" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="183" priority="45" operator="equal">
+  <conditionalFormatting sqref="H55 H58 H61 H66">
+    <cfRule type="cellIs" dxfId="198" priority="46" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="47" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55 H58 H61 H66">
+    <cfRule type="cellIs" dxfId="196" priority="45" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H72">
+    <cfRule type="cellIs" dxfId="195" priority="40" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="41" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H72">
+    <cfRule type="cellIs" dxfId="193" priority="39" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H75">
+    <cfRule type="cellIs" dxfId="192" priority="37" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="38" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H75">
+    <cfRule type="cellIs" dxfId="190" priority="36" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="189" priority="34" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="35" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="187" priority="33" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:G52">
+    <cfRule type="cellIs" dxfId="186" priority="31" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="32" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="184" priority="28" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="182" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="183" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="180" priority="42" operator="equal">
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="181" priority="25" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="43" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="180" priority="26" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="27" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="177" priority="40" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="178" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="175" priority="39" operator="equal">
+  <conditionalFormatting sqref="G47">
+    <cfRule type="cellIs" dxfId="176" priority="22" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H61 H64:H72">
-    <cfRule type="cellIs" dxfId="174" priority="25" operator="equal">
+  <conditionalFormatting sqref="H32:H38">
+    <cfRule type="cellIs" dxfId="175" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="21" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H61 H64:H72">
-    <cfRule type="cellIs" dxfId="172" priority="24" operator="equal">
+  <conditionalFormatting sqref="H32:H38">
+    <cfRule type="cellIs" dxfId="173" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H63">
-    <cfRule type="cellIs" dxfId="171" priority="22" operator="equal">
+  <conditionalFormatting sqref="H26:H29">
+    <cfRule type="cellIs" dxfId="172" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H63">
-    <cfRule type="cellIs" dxfId="169" priority="21" operator="equal">
+  <conditionalFormatting sqref="H26:H29">
+    <cfRule type="cellIs" dxfId="170" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H78">
-    <cfRule type="cellIs" dxfId="168" priority="19" operator="equal">
+  <conditionalFormatting sqref="H95:H109">
+    <cfRule type="cellIs" dxfId="169" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H78">
-    <cfRule type="cellIs" dxfId="166" priority="18" operator="equal">
+  <conditionalFormatting sqref="H95:H109">
+    <cfRule type="cellIs" dxfId="167" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:H81">
-    <cfRule type="cellIs" dxfId="165" priority="16" operator="equal">
+  <conditionalFormatting sqref="H53:H54">
+    <cfRule type="cellIs" dxfId="166" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:H81">
-    <cfRule type="cellIs" dxfId="163" priority="15" operator="equal">
+  <conditionalFormatting sqref="H53:H54">
+    <cfRule type="cellIs" dxfId="164" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="162" priority="13" operator="equal">
+  <conditionalFormatting sqref="H56:H57">
+    <cfRule type="cellIs" dxfId="163" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="160" priority="12" operator="equal">
+  <conditionalFormatting sqref="H56:H57">
+    <cfRule type="cellIs" dxfId="161" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:G58">
-    <cfRule type="cellIs" dxfId="159" priority="10" operator="equal">
+  <conditionalFormatting sqref="H59:H60">
+    <cfRule type="cellIs" dxfId="160" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="157" priority="7" operator="equal">
-      <formula>"B"</formula>
+  <conditionalFormatting sqref="H59:H60">
+    <cfRule type="cellIs" dxfId="158" priority="4" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="156" priority="8" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H62:H65">
+    <cfRule type="cellIs" dxfId="157" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="9" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:H65">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
       <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="154" priority="4" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="153" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="151" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="149" priority="1" operator="equal">
-      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12561,8 +14071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView topLeftCell="B85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -12762,7 +14272,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
         <v>242</v>
@@ -12771,7 +14281,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
         <v>243</v>
@@ -12780,7 +14290,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
         <v>244</v>
@@ -12789,7 +14299,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
         <v>245</v>
@@ -12798,7 +14308,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="E21" s="17"/>
       <c r="F21" s="17" t="s">
         <v>246</v>
@@ -12807,7 +14317,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="8">
         <v>4</v>
       </c>
@@ -12821,7 +14331,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E23" s="17"/>
       <c r="F23" s="17" t="s">
         <v>244</v>
@@ -12830,7 +14340,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
         <v>266</v>
@@ -12839,12 +14349,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>247</v>
       </c>
@@ -12861,8 +14371,11 @@
       <c r="G26" s="18" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="13" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8">
         <v>2</v>
       </c>
@@ -12872,8 +14385,11 @@
       <c r="G27" s="18" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
         <v>252</v>
@@ -12881,8 +14397,11 @@
       <c r="G28" s="18" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="13" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
         <v>253</v>
@@ -12890,8 +14409,11 @@
       <c r="G29" s="18" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="13" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -12899,7 +14421,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
         <v>256</v>
       </c>
@@ -12907,7 +14429,7 @@
       <c r="F31" s="56"/>
       <c r="G31" s="57"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="74" t="s">
         <v>15</v>
       </c>
@@ -13263,7 +14785,7 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="58" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
@@ -13316,7 +14838,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>33</v>
@@ -13336,7 +14858,7 @@
       </c>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="8">
@@ -13349,9 +14871,14 @@
       <c r="G66" s="71" t="s">
         <v>887</v>
       </c>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I66" s="10">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="8"/>
@@ -13360,7 +14887,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>15</v>
@@ -13380,7 +14907,7 @@
       </c>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="8"/>
@@ -13389,7 +14916,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
         <v>33</v>
@@ -13411,7 +14938,7 @@
       </c>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="8">
@@ -13426,7 +14953,7 @@
       </c>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="8">
@@ -13441,7 +14968,7 @@
       </c>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="8">
@@ -13456,7 +14983,7 @@
       </c>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="8"/>
@@ -13465,7 +14992,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>33</v>
@@ -13484,12 +15011,12 @@
       </c>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
         <v>260</v>
@@ -13506,19 +15033,19 @@
       <c r="F77" s="11"/>
       <c r="G77" s="73"/>
     </row>
-    <row r="78" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="D78" s="8">
         <v>2</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="73"/>
     </row>
-    <row r="79" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="D79" s="8">
@@ -13532,7 +15059,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="D80" s="8"/>
@@ -13540,7 +15067,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6" t="s">
         <v>15</v>
@@ -13552,16 +15079,16 @@
         <v>1</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>284</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="D82" s="8"/>
@@ -13571,23 +15098,23 @@
       </c>
       <c r="G82" s="73"/>
     </row>
-    <row r="83" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="D83" s="8">
         <v>2</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>282</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="D84" s="8"/>
@@ -13597,7 +15124,7 @@
       </c>
       <c r="G84" s="73"/>
     </row>
-    <row r="85" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="D85" s="8">
@@ -13610,10 +15137,10 @@
         <v>284</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="D86" s="8"/>
@@ -13623,7 +15150,7 @@
       </c>
       <c r="G86" s="73"/>
     </row>
-    <row r="87" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="D87" s="8">
@@ -13636,10 +15163,10 @@
         <v>282</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="D88" s="8"/>
@@ -13649,7 +15176,7 @@
       </c>
       <c r="G88" s="73"/>
     </row>
-    <row r="89" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="D89" s="8"/>
@@ -13657,14 +15184,14 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="58" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B90" s="46"/>
       <c r="D90" s="46"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>557</v>
       </c>
@@ -13681,7 +15208,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D92" s="6">
         <v>2</v>
       </c>
@@ -13692,7 +15219,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D93" s="6">
         <v>3</v>
       </c>
@@ -13703,7 +15230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D94" s="6">
         <v>4</v>
       </c>
@@ -13711,10 +15238,16 @@
         <v>561</v>
       </c>
       <c r="G94" s="72" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I94" s="6">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>16</v>
       </c>
@@ -13725,10 +15258,10 @@
         <v>1</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -13739,7 +15272,7 @@
         <v>927</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
@@ -13764,11 +15297,11 @@
         <v>1</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="23" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
@@ -13776,7 +15309,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="73" t="s">
@@ -13829,254 +15362,267 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G41:G42 H67:H74">
-    <cfRule type="cellIs" dxfId="148" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="60" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="61" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:D51 A49:C49 D58:F58 A52:B52 D52">
-    <cfRule type="cellIs" dxfId="146" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="75" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45">
-    <cfRule type="cellIs" dxfId="145" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="72" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45 A50:D51 A49:C49 D58:E58 A52:B52 D52">
-    <cfRule type="cellIs" dxfId="144" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48 E50 C52">
-    <cfRule type="cellIs" dxfId="142" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="69" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="70" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="71" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="139" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="137" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="66" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G40 E41:F42">
-    <cfRule type="cellIs" dxfId="136" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="62" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="63" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:D42 B32:G39 B43:G46">
-    <cfRule type="cellIs" dxfId="134" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="64" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="65" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="132" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="57" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="131" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="58" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="59" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="129" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="127" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="51" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="126" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="48" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="125" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="123" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="120" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="118" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="42" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H64">
-    <cfRule type="cellIs" dxfId="117" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="40" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="41" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:H64 H67:H74">
-    <cfRule type="cellIs" dxfId="115" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="cellIs" dxfId="114" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H66">
-    <cfRule type="cellIs" dxfId="112" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="36" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="111" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="34" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="109" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="33" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:G61">
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="cellIs" dxfId="106" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="22" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="cellIs" dxfId="105" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="16" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="102" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="13" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:G51">
-    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="10" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:G51">
-    <cfRule type="cellIs" dxfId="96" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:G52">
-    <cfRule type="cellIs" dxfId="94" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:G52">
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H29">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H29">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14090,8 +15636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -14826,7 +16372,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>275</v>
@@ -14839,7 +16385,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G61" s="54" t="s">
         <v>879</v>
@@ -14851,7 +16397,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G62" s="54" t="s">
         <v>834</v>
@@ -14860,7 +16406,7 @@
     <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G63" s="54" t="s">
         <v>834</v>
@@ -14976,8 +16522,12 @@
       <c r="G73" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="32"/>
+      <c r="H73" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I73" s="32">
+        <v>447</v>
+      </c>
     </row>
     <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
@@ -15017,7 +16567,7 @@
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H76" s="13"/>
     </row>
@@ -15032,7 +16582,7 @@
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="71" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H77" s="13"/>
     </row>
@@ -15092,7 +16642,7 @@
         <v>78</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H81" s="13"/>
     </row>
@@ -15107,7 +16657,7 @@
         <v>59</v>
       </c>
       <c r="G82" s="73" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H82" s="13"/>
     </row>
@@ -15122,7 +16672,7 @@
         <v>60</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H83" s="13"/>
     </row>
@@ -15137,7 +16687,7 @@
         <v>61</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H84" s="13"/>
     </row>
@@ -15162,10 +16712,10 @@
         <v>1</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H86" s="13"/>
     </row>
@@ -15176,10 +16726,10 @@
       <c r="D87" s="8"/>
       <c r="E87" s="11"/>
       <c r="F87" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H87" s="13"/>
     </row>
@@ -15193,7 +16743,7 @@
         <v>64</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H88" s="13"/>
     </row>
@@ -15217,7 +16767,7 @@
         <v>67</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H90" s="13"/>
     </row>
@@ -15229,7 +16779,7 @@
         <v>69</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H91" s="13"/>
     </row>
@@ -15241,7 +16791,7 @@
         <v>74</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15251,7 +16801,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="11"/>
       <c r="F93" s="10" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G93" s="73"/>
     </row>
@@ -15276,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="73"/>
@@ -15288,7 +16838,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F96" s="11"/>
       <c r="G96" s="73"/>
@@ -15300,10 +16850,10 @@
         <v>3</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>858</v>
@@ -15315,7 +16865,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>858</v>
@@ -15341,13 +16891,13 @@
         <v>1</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>284</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15367,13 +16917,13 @@
         <v>2</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>282</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15399,7 +16949,7 @@
         <v>284</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15425,7 +16975,7 @@
         <v>282</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -15464,7 +17014,7 @@
     </row>
     <row r="111" spans="1:7" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="58" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B111" s="46"/>
       <c r="D111" s="46"/>
@@ -15483,10 +17033,10 @@
         <v>558</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D113" s="6">
         <v>2</v>
       </c>
@@ -15494,10 +17044,16 @@
         <v>559</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I113" s="6">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D114" s="6">
         <v>3</v>
       </c>
@@ -15507,8 +17063,14 @@
       <c r="G114" s="66">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I114" s="6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D115" s="6">
         <v>4</v>
       </c>
@@ -15516,10 +17078,11 @@
         <v>561</v>
       </c>
       <c r="G115" s="72" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
         <v>16</v>
       </c>
@@ -15530,25 +17093,25 @@
         <v>1</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E118" s="16"/>
       <c r="F118" s="15" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D119" s="6">
         <v>2</v>
       </c>
@@ -15556,10 +17119,10 @@
         <v>927</v>
       </c>
       <c r="G119" s="72" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D120" s="6">
         <v>3</v>
       </c>
@@ -15567,10 +17130,10 @@
         <v>863</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>870</v>
       </c>
@@ -15585,28 +17148,28 @@
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="73" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E123" s="11"/>
       <c r="F123" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="G123" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="G123" s="10" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E124" s="10"/>
       <c r="F124" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E125" s="11"/>
       <c r="F125" s="10" t="s">
         <v>65</v>
@@ -15615,36 +17178,36 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E126" s="11"/>
       <c r="F126" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E127" s="11"/>
       <c r="F127" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E128" s="11"/>
       <c r="F128" s="10" t="s">
         <v>74</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F129" s="10" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G129" s="73"/>
     </row>
@@ -15668,196 +17231,209 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A40:A52 H40:XFD53 F50:F53 H86:H89">
-    <cfRule type="cellIs" dxfId="88" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="118" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="119" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:E53">
-    <cfRule type="cellIs" dxfId="86" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="116" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="117" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D49 B40:G44 B46:G46 B45:E45 B50:E50">
-    <cfRule type="cellIs" dxfId="84" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="114" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="115" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G49">
-    <cfRule type="cellIs" dxfId="82" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="110" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="111" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:G47 E48:F49">
-    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="112" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="113" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:G45">
-    <cfRule type="cellIs" dxfId="78" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="108" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G53">
-    <cfRule type="cellIs" dxfId="76" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="106" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="107" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:D57 A56:C56 D65 E68:F68">
-    <cfRule type="cellIs" dxfId="74" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="105" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:D55 A54:G54">
+    <cfRule type="cellIs" dxfId="76" priority="102" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:D55 A54:G54 A57:D57 A56:C56 D65 E68">
+    <cfRule type="cellIs" dxfId="75" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
     <cfRule type="cellIs" dxfId="73" priority="99" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D55 A54:G54 A57:D57 A56:C56 D65 E68">
-    <cfRule type="cellIs" dxfId="72" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="100" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="101" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="97" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="101" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:G55">
-    <cfRule type="cellIs" dxfId="67" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="97" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="98" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:G55">
-    <cfRule type="cellIs" dxfId="65" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="96" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:G56">
+    <cfRule type="cellIs" dxfId="67" priority="93" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:G56">
+    <cfRule type="cellIs" dxfId="66" priority="94" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
     <cfRule type="cellIs" dxfId="64" priority="90" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:G56">
-    <cfRule type="cellIs" dxfId="63" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="91" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="92" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="92" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:G57">
-    <cfRule type="cellIs" dxfId="58" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="88" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="89" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:G57">
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G58">
+    <cfRule type="cellIs" dxfId="58" priority="84" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:G58">
+    <cfRule type="cellIs" dxfId="57" priority="85" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="86" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
     <cfRule type="cellIs" dxfId="55" priority="81" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:G58">
-    <cfRule type="cellIs" dxfId="54" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="82" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="83" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="52" priority="78" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="79" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:G59">
-    <cfRule type="cellIs" dxfId="49" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:G59">
-    <cfRule type="cellIs" dxfId="47" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="78" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="66" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="45" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="46" priority="65" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="45" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
     <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E70">
     <cfRule type="cellIs" dxfId="42" priority="60" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -15865,25 +17441,25 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
+  <conditionalFormatting sqref="E65:F65 E65:E66">
+    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="39" priority="57" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E65:E66">
+    <cfRule type="cellIs" dxfId="39" priority="54" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="55" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65 E65:E66">
+  <conditionalFormatting sqref="E66">
     <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E66">
+  <conditionalFormatting sqref="E66">
     <cfRule type="cellIs" dxfId="36" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -15891,20 +17467,20 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
-      <formula>"B"</formula>
+  <conditionalFormatting sqref="H73:H75 H78:H85">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H73:H75 H78:H89">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H75 H78:H85">
+  <conditionalFormatting sqref="H76:H77">
     <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -15912,25 +17488,25 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H75 H78:H89">
+  <conditionalFormatting sqref="H76:H77">
     <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76:H77">
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76:H77">
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
-      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
     <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -15938,12 +17514,12 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H90">
     <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="B72:G72">
     <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -15951,25 +17527,25 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:G72">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
-      <formula>"P"</formula>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
+  <conditionalFormatting sqref="G61">
     <cfRule type="cellIs" dxfId="16" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -15977,29 +17553,29 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+  <conditionalFormatting sqref="G63:G64">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G64">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"B"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63:G64">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H113:H115">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113:H115">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
